--- a/hw/HW11_Example_for_Quant_Factor.xlsx
+++ b/hw/HW11_Example_for_Quant_Factor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="18195" windowHeight="9270"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -32,12 +32,15 @@
   <si>
     <t>reagent</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +160,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -192,7 +194,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,19 +369,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -391,7 +392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -402,7 +403,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -413,7 +414,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -424,7 +425,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -435,7 +436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -446,7 +447,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -457,7 +458,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -468,7 +469,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -479,7 +480,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -490,7 +491,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -501,7 +502,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -512,7 +513,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -523,7 +524,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -534,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -545,7 +546,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -556,7 +557,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -567,7 +568,7 @@
         <v>9.1571999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -578,7 +579,7 @@
         <v>7.2279999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -589,7 +590,7 @@
         <v>8.8697999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -600,7 +601,7 @@
         <v>13.1378</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -611,7 +612,7 @@
         <v>12.0304</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -622,7 +623,7 @@
         <v>13.683299999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -633,7 +634,7 @@
         <v>15.157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -644,7 +645,7 @@
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -655,7 +656,7 @@
         <v>14.6707</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -666,7 +667,7 @@
         <v>14.8706</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -677,7 +678,7 @@
         <v>16.018000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -688,7 +689,7 @@
         <v>14.4354</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -699,7 +700,7 @@
         <v>15.3543</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -710,7 +711,7 @@
         <v>13.465999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -719,6 +720,15 @@
       </c>
       <c r="C31">
         <v>13.460800000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B2:B32)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -727,24 +737,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
